--- a/question/project.xlsx
+++ b/question/project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\C-eclipse-workspace\sudoku2\question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE41EAB-7174-40B7-89BD-9ABF406CE99E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09C7D3E-30BA-4519-995A-82224C4A022B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="117">
   <si>
     <t>solve</t>
   </si>
@@ -394,6 +394,9 @@
   </si>
   <si>
     <t>not forget delete redudndt functions</t>
+  </si>
+  <si>
+    <t>commands</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,6 +481,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="28">
     <border>
@@ -827,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -929,33 +938,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,7 +947,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,6 +975,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1003,17 +1020,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1599,7 +1609,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="71" t="s">
+      <c r="H2" s="61" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="3">
@@ -1629,7 +1639,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="61" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3">
@@ -1681,7 +1691,7 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="61" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="3">
@@ -1733,7 +1743,7 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="62" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="3">
@@ -1759,7 +1769,7 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="62" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="3">
@@ -1785,7 +1795,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="73" t="s">
+      <c r="H9" s="63" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3">
@@ -1857,7 +1867,7 @@
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="71" t="s">
+      <c r="H12" s="61" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="3">
@@ -1883,7 +1893,7 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="62" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="3">
@@ -1909,7 +1919,7 @@
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="72" t="s">
+      <c r="H14" s="62" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="3">
@@ -2018,7 +2028,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G20" s="54"/>
+      <c r="G20" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J18" xr:uid="{4B6FF6AF-75C2-4CC6-AB7E-A1797968E4C8}">
@@ -2080,16 +2090,16 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="H1" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="56" t="s">
+      <c r="I1" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="56" t="s">
+      <c r="J1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="61" t="s">
+      <c r="K1" s="51" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2108,17 +2118,17 @@
         <v>35</v>
       </c>
       <c r="F2" s="27"/>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="H2" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="I2" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="65"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2135,17 +2145,17 @@
         <v>35</v>
       </c>
       <c r="F3" s="27"/>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="66"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -2164,17 +2174,17 @@
         <v>35</v>
       </c>
       <c r="F4" s="28"/>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="64" t="s">
+      <c r="H4" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="64" t="s">
+      <c r="I4" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="13"/>
-      <c r="K4" s="66"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2191,17 +2201,17 @@
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="28"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="H5" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="64" t="s">
+      <c r="I5" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="66"/>
+      <c r="K5" s="56"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2222,17 +2232,17 @@
       <c r="F6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="66"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -2253,17 +2263,17 @@
       <c r="F7" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="64" t="s">
+      <c r="I7" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J7" s="13"/>
-      <c r="K7" s="66"/>
+      <c r="K7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -2282,17 +2292,17 @@
         <v>35</v>
       </c>
       <c r="F8" s="28"/>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="64" t="s">
+      <c r="H8" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="13"/>
-      <c r="K8" s="66"/>
+      <c r="K8" s="56"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -2309,17 +2319,17 @@
         <v>35</v>
       </c>
       <c r="F9" s="28"/>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="64" t="s">
+      <c r="I9" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J9" s="13"/>
-      <c r="K9" s="66"/>
+      <c r="K9" s="56"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -2336,17 +2346,17 @@
         <v>35</v>
       </c>
       <c r="F10" s="28"/>
-      <c r="G10" s="57" t="s">
+      <c r="G10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="64" t="s">
+      <c r="H10" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="54" t="s">
         <v>59</v>
       </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="66"/>
+      <c r="K10" s="56"/>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -2361,17 +2371,17 @@
         <v>35</v>
       </c>
       <c r="F11" s="28"/>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="64" t="s">
+      <c r="H11" s="54" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J11" s="13"/>
-      <c r="K11" s="66"/>
+      <c r="K11" s="56"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -2386,17 +2396,17 @@
         <v>35</v>
       </c>
       <c r="F12" s="28"/>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="64" t="s">
+      <c r="H12" s="54" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="13"/>
-      <c r="K12" s="66"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -2411,17 +2421,17 @@
         <v>35</v>
       </c>
       <c r="F13" s="28"/>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="64" t="s">
+      <c r="H13" s="54" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J13" s="13"/>
-      <c r="K13" s="66" t="s">
+      <c r="K13" s="56" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2438,17 +2448,17 @@
         <v>35</v>
       </c>
       <c r="F14" s="28"/>
-      <c r="G14" s="57" t="s">
+      <c r="G14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="64" t="s">
+      <c r="H14" s="54" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="56" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2465,17 +2475,17 @@
         <v>35</v>
       </c>
       <c r="F15" s="28"/>
-      <c r="G15" s="57" t="s">
+      <c r="G15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="64" t="s">
+      <c r="H15" s="54" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J15" s="13"/>
-      <c r="K15" s="66"/>
+      <c r="K15" s="56"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -2488,17 +2498,17 @@
         <v>35</v>
       </c>
       <c r="F16" s="28"/>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="64" t="s">
+      <c r="H16" s="54" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="13"/>
-      <c r="K16" s="66" t="s">
+      <c r="K16" s="56" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2515,17 +2525,17 @@
         <v>35</v>
       </c>
       <c r="F17" s="28"/>
-      <c r="G17" s="57" t="s">
+      <c r="G17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="64" t="s">
+      <c r="H17" s="54" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J17" s="13"/>
-      <c r="K17" s="66"/>
+      <c r="K17" s="56"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
@@ -2542,17 +2552,17 @@
       <c r="F18" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="58" t="s">
+      <c r="G18" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="55" t="s">
+      <c r="H18" s="46" t="s">
         <v>59</v>
       </c>
       <c r="I18" s="16" t="s">
         <v>59</v>
       </c>
       <c r="J18" s="15"/>
-      <c r="K18" s="67"/>
+      <c r="K18" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K18" xr:uid="{42595114-CB8B-4A18-BD37-7DAC7CAE0BB8}"/>
@@ -2754,28 +2764,28 @@
       <c r="I8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="46"/>
-      <c r="O8" s="47"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="66"/>
       <c r="P8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="50"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="69"/>
       <c r="P9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="51"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="72"/>
       <c r="P10" t="s">
         <v>33</v>
       </c>
@@ -2877,18 +2887,18 @@
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="47"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="66"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="66"/>
       <c r="X14">
         <v>1</v>
       </c>
@@ -2903,18 +2913,18 @@
       <c r="G15" s="34"/>
       <c r="H15" s="30"/>
       <c r="I15" s="35"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="49"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="49"/>
-      <c r="V15" s="49"/>
-      <c r="W15" s="50"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="69"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="69"/>
       <c r="X15">
         <v>2</v>
       </c>
@@ -2929,18 +2939,18 @@
       <c r="G16" s="36"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="51"/>
-      <c r="U16" s="52"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="53"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="72"/>
       <c r="X16">
         <v>3</v>
       </c>
@@ -3139,653 +3149,595 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAC8EC5-E2FB-45AC-94BF-5CD1F73D86E5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="78"/>
+      <c r="J1" s="79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+      <c r="J2" s="80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
+      <c r="J3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="J4" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="75"/>
+      <c r="J5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="J6" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="J7" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J16" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A333B1-1C34-4D67-950C-5A7C1762DE7C}">
-  <dimension ref="B3:J65"/>
+  <dimension ref="B3:C65"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45:G45"/>
+    <sheetView rightToLeft="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="111.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H3" s="68" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="C3" s="58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="8:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="H4" s="60" t="s">
+    <row r="4" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="69" t="s">
+      <c r="C4" s="59" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H5" s="60" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="60" t="s">
+      <c r="C5" s="50" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H6" s="60" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="C6" s="50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H7" s="60" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="60" t="s">
+      <c r="C7" s="50" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H8" s="60" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I8" s="60" t="s">
+      <c r="C8" s="50" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H9" s="60" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I9" s="60" t="s">
+      <c r="C9" s="50" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H10" s="60" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="60" t="s">
+      <c r="C10" s="50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H11" s="60" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="60" t="s">
+      <c r="C11" s="50" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H12" s="60" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="60" t="s">
+      <c r="C12" s="50" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H13" s="60" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="60" t="s">
+      <c r="C13" s="50" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H14" s="60" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="60" t="s">
+      <c r="C14" s="50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H15" s="60" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="60" t="s">
+      <c r="C15" s="50" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H16" s="60" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="60" t="s">
+      <c r="C16" s="50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H17" s="60" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="60" t="s">
+      <c r="C17" s="50" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H18" s="60" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I18" s="60" t="s">
+      <c r="C18" s="50" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H19" s="60" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="60" t="s">
+      <c r="C19" s="50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H20" s="60" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I20" s="60" t="s">
+      <c r="C20" s="50" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H21" s="60" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="60" t="s">
+      <c r="C21" s="50" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H22" s="60" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I22" s="60" t="s">
+      <c r="C22" s="50" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H23" s="60" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="60" t="s">
+      <c r="C23" s="50" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H24" s="60" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="60" t="s">
+      <c r="C24" s="50" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H25" s="60" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="60" t="s">
+      <c r="C25" s="50" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H26" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>74</v>
       </c>
-      <c r="I26" s="60" t="s">
+      <c r="C26" s="50" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H27" s="60" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I27" s="60" t="s">
+      <c r="C27" s="50" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H28" s="60" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="I28" s="60" t="s">
+      <c r="C28" s="50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H29" s="60" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="60" t="s">
+      <c r="C29" s="50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H30" s="60" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I30" s="60" t="s">
+      <c r="C30" s="50" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H31" s="60" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I31" s="60" t="s">
+      <c r="C31" s="50" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H32" s="60" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="I32" s="60" t="s">
+      <c r="C32" s="50" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="H33" s="60" t="s">
+    <row r="33" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I33" s="70" t="s">
+      <c r="C33" s="60" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H34" s="60" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I34" s="60" t="s">
+      <c r="C34" s="50" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H35" s="60" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I35" s="60" t="s">
+      <c r="C35" s="50" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H36" s="60" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="60" t="s">
+      <c r="C36" s="50" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="60" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="I37" s="60" t="s">
+      <c r="C37" s="50" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="62" t="s">
+    <row r="38" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="I38" s="60" t="s">
+      <c r="C38" s="50" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="60" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="52"/>
+      <c r="C39" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="78" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="60" t="s">
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="52"/>
+      <c r="C40" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="60" t="s">
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="52"/>
+      <c r="C41" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="78" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="60"/>
-      <c r="J42" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="78" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="78" t="s">
-        <v>112</v>
-      </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="78"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="78"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="78"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="78"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="78"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="78"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="78"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="60"/>
-      <c r="J51" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="78"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="79"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="60"/>
-      <c r="J52" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="78"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="79"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="60"/>
-      <c r="J53" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="78"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="78"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="79"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="78"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="79"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="60"/>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="78"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="79"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="60"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="78"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="60"/>
-    </row>
-    <row r="59" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="60"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H60" s="60"/>
-      <c r="I60" s="60"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-    </row>
-    <row r="65" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H65" s="60"/>
-      <c r="I65" s="60"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="52"/>
+      <c r="C42" s="50"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="52"/>
+      <c r="C43" s="50"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="52"/>
+      <c r="C44" s="50"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="52"/>
+      <c r="C45" s="50"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="52"/>
+      <c r="C46" s="50"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="52"/>
+      <c r="C47" s="50"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="52"/>
+      <c r="C48" s="50"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="52"/>
+      <c r="C49" s="50"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50" s="52"/>
+      <c r="C50" s="50"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51" s="52"/>
+      <c r="C51" s="50"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52" s="52"/>
+      <c r="C52" s="50"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53" s="52"/>
+      <c r="C53" s="50"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54" s="52"/>
+      <c r="C54" s="50"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55" s="52"/>
+      <c r="C55" s="50"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56" s="52"/>
+      <c r="C56" s="50"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57" s="52"/>
+      <c r="C57" s="50"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58" s="52"/>
+      <c r="C58" s="50"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59" s="52"/>
+      <c r="C59" s="50"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60" s="50"/>
+      <c r="C60" s="50"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/question/project.xlsx
+++ b/question/project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\C-eclipse-workspace\sudoku2\question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09C7D3E-30BA-4519-995A-82224C4A022B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C3A16-7E54-4F86-939D-A4F09D7DB9D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'commands parameter check'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$J$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TODO!$B$3:$E$41</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="118">
   <si>
     <t>solve</t>
   </si>
@@ -246,9 +247,6 @@
   </si>
   <si>
     <t>removing redudndunt function from header files</t>
-  </si>
-  <si>
-    <t>wehen clearing the dirst node watch out to not clear the not existing data</t>
   </si>
   <si>
     <t>author</t>
@@ -398,12 +396,18 @@
   <si>
     <t>commands</t>
   </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>wehen clearing the first node watch out to not clear the not existing data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,8 +448,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,12 +503,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -794,19 +824,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -832,11 +849,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -951,7 +970,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -968,11 +986,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1005,7 +1020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1020,13 +1035,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="טוב" xfId="2" builtinId="26"/>
+    <cellStyle name="ניטראלי" xfId="3" builtinId="28"/>
     <cellStyle name="קלט" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="20">
@@ -1609,7 +1631,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="59" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="3">
@@ -1639,7 +1661,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="61" t="s">
+      <c r="H3" s="59" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3">
@@ -1691,7 +1713,7 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="61" t="s">
+      <c r="H5" s="59" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="3">
@@ -1743,7 +1765,7 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="60" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="3">
@@ -1769,7 +1791,7 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="62" t="s">
+      <c r="H8" s="60" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="3">
@@ -1795,7 +1817,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="63" t="s">
+      <c r="H9" s="61" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3">
@@ -1867,7 +1889,7 @@
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="61" t="s">
+      <c r="H12" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="3">
@@ -1893,7 +1915,7 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="62" t="s">
+      <c r="H13" s="60" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="3">
@@ -1919,7 +1941,7 @@
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="62" t="s">
+      <c r="H14" s="60" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="3">
@@ -2090,7 +2112,7 @@
       <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="52" t="s">
         <v>62</v>
       </c>
       <c r="I1" s="47" t="s">
@@ -2121,14 +2143,14 @@
       <c r="G2" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="53" t="s">
         <v>59</v>
       </c>
       <c r="J2" s="13"/>
-      <c r="K2" s="55"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2148,14 +2170,14 @@
       <c r="G3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="54" t="s">
+      <c r="H3" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="54" t="s">
+      <c r="I3" s="53" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="56"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -2177,14 +2199,14 @@
       <c r="G4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>59</v>
       </c>
       <c r="J4" s="13"/>
-      <c r="K4" s="56"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -2204,14 +2226,14 @@
       <c r="G5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="53" t="s">
         <v>59</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="56"/>
+      <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2235,14 +2257,14 @@
       <c r="G6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="I6" s="53" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="56"/>
+      <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
@@ -2266,14 +2288,14 @@
       <c r="G7" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="53" t="s">
         <v>59</v>
       </c>
       <c r="J7" s="13"/>
-      <c r="K7" s="56"/>
+      <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
@@ -2295,14 +2317,14 @@
       <c r="G8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="54" t="s">
+      <c r="H8" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I8" s="54" t="s">
+      <c r="I8" s="53" t="s">
         <v>59</v>
       </c>
       <c r="J8" s="13"/>
-      <c r="K8" s="56"/>
+      <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -2322,14 +2344,14 @@
       <c r="G9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="54" t="s">
+      <c r="I9" s="53" t="s">
         <v>59</v>
       </c>
       <c r="J9" s="13"/>
-      <c r="K9" s="56"/>
+      <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
@@ -2349,14 +2371,14 @@
       <c r="G10" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="54" t="s">
+      <c r="I10" s="53" t="s">
         <v>59</v>
       </c>
       <c r="J10" s="13"/>
-      <c r="K10" s="56"/>
+      <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
@@ -2374,14 +2396,14 @@
       <c r="G11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="53" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J11" s="13"/>
-      <c r="K11" s="56"/>
+      <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -2399,14 +2421,14 @@
       <c r="G12" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="53" t="s">
         <v>59</v>
       </c>
       <c r="I12" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J12" s="13"/>
-      <c r="K12" s="56"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
@@ -2424,14 +2446,14 @@
       <c r="G13" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="53" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J13" s="13"/>
-      <c r="K13" s="56" t="s">
+      <c r="K13" s="55" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2451,14 +2473,14 @@
       <c r="G14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="54" t="s">
+      <c r="H14" s="53" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J14" s="13"/>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="55" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2478,14 +2500,14 @@
       <c r="G15" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="53" t="s">
         <v>59</v>
       </c>
       <c r="I15" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J15" s="13"/>
-      <c r="K15" s="56"/>
+      <c r="K15" s="55"/>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
@@ -2501,14 +2523,14 @@
       <c r="G16" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="53" t="s">
         <v>59</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J16" s="13"/>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="55" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2528,14 +2550,14 @@
       <c r="G17" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="53" t="s">
         <v>59</v>
       </c>
       <c r="I17" s="14" t="s">
         <v>59</v>
       </c>
       <c r="J17" s="13"/>
-      <c r="K17" s="56"/>
+      <c r="K17" s="55"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
@@ -2562,7 +2584,7 @@
         <v>59</v>
       </c>
       <c r="J18" s="15"/>
-      <c r="K18" s="57"/>
+      <c r="K18" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:K18" xr:uid="{42595114-CB8B-4A18-BD37-7DAC7CAE0BB8}"/>
@@ -2764,28 +2786,28 @@
       <c r="I8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="66"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
       <c r="P8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L9" s="67"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="69"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="67"/>
       <c r="P9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="70"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="72"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="70"/>
       <c r="P10" t="s">
         <v>33</v>
       </c>
@@ -2887,18 +2909,18 @@
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="65"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="65"/>
-      <c r="R14" s="65"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="66"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="63"/>
+      <c r="R14" s="63"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="62"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="64"/>
       <c r="X14">
         <v>1</v>
       </c>
@@ -2913,18 +2935,18 @@
       <c r="G15" s="34"/>
       <c r="H15" s="30"/>
       <c r="I15" s="35"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="69"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="66"/>
+      <c r="V15" s="66"/>
+      <c r="W15" s="67"/>
       <c r="X15">
         <v>2</v>
       </c>
@@ -2939,18 +2961,18 @@
       <c r="G16" s="36"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="72"/>
+      <c r="L16" s="68"/>
+      <c r="M16" s="69"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="70"/>
       <c r="X16">
         <v>3</v>
       </c>
@@ -3151,7 +3173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDAC8EC5-E2FB-45AC-94BF-5CD1F73D86E5}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -3161,92 +3183,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="76"/>
+      <c r="J1" s="77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="78"/>
-      <c r="J1" s="79" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="73"/>
+      <c r="J2" s="78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="J2" s="80" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="73"/>
       <c r="J3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
+      <c r="A4" s="71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="73"/>
       <c r="J4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="75"/>
+      <c r="A5" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="73"/>
       <c r="J5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="74"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="75"/>
+      <c r="A6" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="J6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="75"/>
+      <c r="A7" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
       <c r="J7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3323,421 +3345,494 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A333B1-1C34-4D67-950C-5A7C1762DE7C}">
-  <dimension ref="B3:C65"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B3:E41"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:D55"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="111.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="111.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="58" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="50" t="s">
+      <c r="D4" s="80" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="D5" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="50"/>
+      <c r="C16" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="50"/>
+      <c r="C17" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="50"/>
+      <c r="C19" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="50"/>
+      <c r="C20" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="50"/>
+      <c r="C21" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="50"/>
+      <c r="C22" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="50"/>
+      <c r="C23" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="50"/>
+      <c r="C24" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="50"/>
+      <c r="C25" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="50"/>
+      <c r="C26" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="50"/>
+      <c r="C27" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="50"/>
+      <c r="C29" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="50"/>
+      <c r="C30" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="50" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+      <c r="E30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="50"/>
+      <c r="C31" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="50" t="s">
+      <c r="D31" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="50"/>
+      <c r="C32" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="50" t="s">
+      <c r="D32" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="50"/>
+      <c r="C33" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
+      <c r="D33" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="50"/>
+      <c r="C35" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="50"/>
+      <c r="C36" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="50"/>
+      <c r="C38" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="50" t="s">
+      <c r="D38" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="50"/>
+      <c r="C39" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="50" t="s">
+      <c r="D39" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="50"/>
+      <c r="C40" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="50" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="50" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="50" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
+      <c r="D40" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="50"/>
+      <c r="C41" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" s="60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="52" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="52"/>
-      <c r="C39" s="50" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="52"/>
-      <c r="C40" s="50" t="s">
+      <c r="D41" s="50" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="52"/>
-      <c r="C41" s="50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="52"/>
-      <c r="C42" s="50"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="52"/>
-      <c r="C43" s="50"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="52"/>
-      <c r="C44" s="50"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="52"/>
-      <c r="C45" s="50"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="52"/>
-      <c r="C46" s="50"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="52"/>
-      <c r="C47" s="50"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="52"/>
-      <c r="C48" s="50"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="52"/>
-      <c r="C49" s="50"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="52"/>
-      <c r="C50" s="50"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="52"/>
-      <c r="C51" s="50"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="52"/>
-      <c r="C52" s="50"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="52"/>
-      <c r="C53" s="50"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="52"/>
-      <c r="C54" s="50"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="52"/>
-      <c r="C55" s="50"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="52"/>
-      <c r="C56" s="50"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="52"/>
-      <c r="C57" s="50"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="52"/>
-      <c r="C58" s="50"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="52"/>
-      <c r="C59" s="50"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="50"/>
-      <c r="C62" s="50"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="50"/>
-      <c r="C63" s="50"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="50"/>
-      <c r="C64" s="50"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="50"/>
-      <c r="C65" s="50"/>
+      <c r="E41">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B3:E41" xr:uid="{5BEA5D4C-24B3-4975-8002-BCF116DA8AE2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="allen"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/question/project.xlsx
+++ b/question/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\C-eclipse-workspace\sudoku2\question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244C3A16-7E54-4F86-939D-A4F09D7DB9D9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D8B9CC-AA22-4708-A72C-58FADB7D3956}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'commands parameter check'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$J$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TODO!$B$3:$E$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TODO!$B$3:$D$42</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="118">
   <si>
     <t>solve</t>
   </si>
@@ -328,9 +328,6 @@
   </si>
   <si>
     <t>try to download proj</t>
-  </si>
-  <si>
-    <t>check all failure of mallocs , and check it all is being freed</t>
   </si>
   <si>
     <t>gurobi, do not assume directory log</t>
@@ -397,17 +394,20 @@
     <t>commands</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>wehen clearing the first node watch out to not clear the not existing data</t>
+  </si>
+  <si>
+    <t>check all failure of mallocs</t>
+  </si>
+  <si>
+    <t>check all mallocs were being freed is being freed (idea - pointers array)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,16 +456,8 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,11 +500,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -849,13 +836,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,20 +1021,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="24" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="טוב" xfId="2" builtinId="26"/>
-    <cellStyle name="ניטראלי" xfId="3" builtinId="28"/>
     <cellStyle name="קלט" xfId="1" builtinId="20"/>
   </cellStyles>
   <dxfs count="20">
@@ -1565,7 +1549,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="J17" sqref="J9:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3184,7 +3168,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -3192,12 +3176,12 @@
       <c r="E1" s="75"/>
       <c r="F1" s="76"/>
       <c r="J1" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" s="72"/>
       <c r="C2" s="72"/>
@@ -3210,7 +3194,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" s="72"/>
       <c r="C3" s="72"/>
@@ -3223,7 +3207,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="72"/>
       <c r="C4" s="72"/>
@@ -3236,7 +3220,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="72"/>
       <c r="C5" s="72"/>
@@ -3249,7 +3233,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="72"/>
       <c r="C6" s="72"/>
@@ -3262,7 +3246,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" s="72"/>
       <c r="C7" s="72"/>
@@ -3345,494 +3329,457 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A333B1-1C34-4D67-950C-5A7C1762DE7C}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B3:E41"/>
+  <dimension ref="B3:D42"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="111.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B14" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B15" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B16" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="80" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D28">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="80" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B4" s="50"/>
-      <c r="C4" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50" t="s">
+      <c r="D33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="50"/>
-      <c r="C6" s="50" t="s">
+      <c r="C38" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="50"/>
-      <c r="C7" s="50" t="s">
+      <c r="C39" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="81" t="s">
+      <c r="C40" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="50"/>
-      <c r="C10" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="50"/>
-      <c r="C16" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="79" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="50"/>
-      <c r="C20" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="50"/>
-      <c r="C21" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="50"/>
-      <c r="C22" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="E22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="50"/>
-      <c r="C23" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="50"/>
-      <c r="C24" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="50"/>
-      <c r="C25" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
-      <c r="C26" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="50" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="50"/>
-      <c r="C27" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="50"/>
-      <c r="C28" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="50"/>
-      <c r="C29" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="50"/>
-      <c r="C30" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="50"/>
-      <c r="C31" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="50"/>
-      <c r="C32" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E32">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="50"/>
-      <c r="C33" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="50"/>
-      <c r="C34" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E34">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="50"/>
-      <c r="C35" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E35">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="50"/>
-      <c r="C36" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="50"/>
-      <c r="C37" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="15" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="50"/>
-      <c r="C38" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E38">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="50"/>
-      <c r="C39" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="50"/>
-      <c r="C40" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="50"/>
-      <c r="C41" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41">
-        <v>38</v>
+      <c r="D42">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:E41" xr:uid="{5BEA5D4C-24B3-4975-8002-BCF116DA8AE2}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="allen"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B3:D42" xr:uid="{5BEA5D4C-24B3-4975-8002-BCF116DA8AE2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/question/project.xlsx
+++ b/question/project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\C-eclipse-workspace\sudoku2\question\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-school\sudoku-console\question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D8B9CC-AA22-4708-A72C-58FADB7D3956}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C01590-8B22-46CA-ABF0-EE4B76D79E56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,16 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$A$1:$J$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">TODO!$B$3:$D$42</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -353,7 +359,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Arial"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -411,7 +417,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -420,14 +426,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -435,7 +441,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -444,14 +450,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -976,51 +982,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,13 +990,74 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="24" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="טוב" xfId="2" builtinId="26"/>
     <cellStyle name="קלט" xfId="1" builtinId="20"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1552,18 +1574,18 @@
       <selection activeCell="J17" sqref="J9:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="28.875" customWidth="1"/>
-    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1595,7 +1617,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1625,7 +1647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
@@ -1655,7 +1677,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
@@ -1683,7 +1705,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9">
@@ -1707,7 +1729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
@@ -1735,7 +1757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9">
@@ -1759,7 +1781,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
@@ -1785,7 +1807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>52</v>
       </c>
@@ -1811,7 +1833,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9">
@@ -1833,7 +1855,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9">
@@ -1855,7 +1877,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1883,7 +1905,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>51</v>
       </c>
@@ -1909,7 +1931,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>51</v>
       </c>
@@ -1935,7 +1957,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9">
@@ -1959,7 +1981,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9">
@@ -1981,7 +2003,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
@@ -2005,7 +2027,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10">
@@ -2033,17 +2055,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="G20" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J18" xr:uid="{4B6FF6AF-75C2-4CC6-AB7E-A1797968E4C8}">
-    <sortState ref="A2:J18">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J18">
       <sortCondition ref="I1:I18"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G2:G18">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2060,21 +2082,21 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2109,7 +2131,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -2136,7 +2158,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -2163,7 +2185,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
@@ -2192,7 +2214,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -2219,7 +2241,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
@@ -2250,7 +2272,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
@@ -2281,7 +2303,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="55"/>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
@@ -2310,7 +2332,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="55"/>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>50</v>
       </c>
@@ -2337,7 +2359,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="55"/>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
@@ -2364,7 +2386,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="55"/>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9">
@@ -2389,7 +2411,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="55"/>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9">
@@ -2414,7 +2436,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="55"/>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9">
@@ -2441,7 +2463,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9">
@@ -2468,7 +2490,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9">
@@ -2493,7 +2515,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="55"/>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9">
@@ -2518,7 +2540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
@@ -2543,7 +2565,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="55"/>
     </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10">
@@ -2573,97 +2595,97 @@
   </sheetData>
   <autoFilter ref="A1:K18" xr:uid="{42595114-CB8B-4A18-BD37-7DAC7CAE0BB8}"/>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="18" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="15" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="cellIs" dxfId="14" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I17">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H8">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H4">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2680,10 +2702,10 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E2">
         <f>38</f>
         <v>38</v>
@@ -2699,7 +2721,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I3" s="13">
         <f>4*M3+M5+1</f>
         <v>52</v>
@@ -2718,7 +2740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M4" s="13">
         <v>4</v>
       </c>
@@ -2726,7 +2748,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M5" s="15">
         <v>3</v>
       </c>
@@ -2734,7 +2756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H6" s="39">
         <v>0</v>
       </c>
@@ -2743,7 +2765,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H7" s="40">
         <v>0</v>
       </c>
@@ -2763,40 +2785,40 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H8" s="41">
         <v>0</v>
       </c>
       <c r="I8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="64"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="68"/>
       <c r="P8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L9" s="65"/>
-      <c r="M9" s="66"/>
-      <c r="N9" s="66"/>
-      <c r="O9" s="67"/>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="L9" s="69"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="71"/>
       <c r="P9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70"/>
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="72"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="74"/>
       <c r="P10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>8</v>
       </c>
@@ -2825,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="30"/>
       <c r="C12" s="35"/>
@@ -2836,7 +2858,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
@@ -2883,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -2893,23 +2915,23 @@
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="63"/>
-      <c r="R14" s="63"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="63"/>
-      <c r="W14" s="64"/>
+      <c r="L14" s="66"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="67"/>
+      <c r="V14" s="67"/>
+      <c r="W14" s="68"/>
       <c r="X14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="30"/>
       <c r="C15" s="35"/>
@@ -2919,23 +2941,23 @@
       <c r="G15" s="34"/>
       <c r="H15" s="30"/>
       <c r="I15" s="35"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="65"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="67"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="69"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="71"/>
       <c r="X15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
@@ -2945,23 +2967,23 @@
       <c r="G16" s="36"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="70"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="74"/>
       <c r="X16">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -2987,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="30"/>
       <c r="C18" s="35"/>
@@ -3013,7 +3035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
@@ -3039,7 +3061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L20" s="18"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -3056,7 +3078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L21" s="21"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
@@ -3073,7 +3095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L22" s="24"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -3090,7 +3112,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
@@ -3107,7 +3129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="L24" s="21"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
@@ -3124,7 +3146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L25" s="24"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
@@ -3161,153 +3183,153 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="76"/>
-      <c r="J1" s="77" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="80"/>
+      <c r="J1" s="62" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="75" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="73"/>
-      <c r="J2" s="78" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="77"/>
+      <c r="J2" s="63" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
       <c r="J3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="75" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="73"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="77"/>
       <c r="J4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="75" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="77"/>
       <c r="J5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="71" t="s">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="73"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
       <c r="J6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="75" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="72"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
       <c r="J7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="10:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="10:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="10:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J18" s="5" t="s">
         <v>16</v>
       </c>
@@ -3332,16 +3354,16 @@
   <dimension ref="B3:D42"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="111.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="57" t="s">
         <v>71</v>
       </c>
@@ -3349,437 +3371,441 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="79" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>75</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="50" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="80" t="s">
-        <v>69</v>
+      <c r="C6" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="D7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B9" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B10" s="50" t="s">
+      <c r="C18" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="D11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="80" t="s">
-        <v>84</v>
+      <c r="C19" s="65" t="s">
+        <v>68</v>
       </c>
       <c r="D19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="80" t="s">
-        <v>85</v>
+      <c r="C20" s="65" t="s">
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="80" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="80" t="s">
-        <v>87</v>
+      <c r="C22" s="65" t="s">
+        <v>115</v>
       </c>
       <c r="D22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="80" t="s">
-        <v>89</v>
+      <c r="C23" s="65" t="s">
+        <v>77</v>
       </c>
       <c r="D23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="80" t="s">
-        <v>88</v>
+      <c r="C24" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="D24">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="80" t="s">
-        <v>90</v>
+      <c r="C25" s="65" t="s">
+        <v>79</v>
       </c>
       <c r="D25">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="50" t="s">
-        <v>91</v>
+        <v>72</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="D26">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="50" t="s">
-        <v>92</v>
+      <c r="C27" s="65" t="s">
+        <v>80</v>
       </c>
       <c r="D27">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B28" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="80" t="s">
-        <v>93</v>
+      <c r="C28" s="65" t="s">
+        <v>81</v>
       </c>
       <c r="D28">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>96</v>
+        <v>72</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>82</v>
       </c>
       <c r="D29">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>95</v>
+        <v>72</v>
+      </c>
+      <c r="C30" s="65" t="s">
+        <v>84</v>
       </c>
       <c r="D30">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="50" t="s">
-        <v>97</v>
+      <c r="C31" s="65" t="s">
+        <v>85</v>
       </c>
       <c r="D31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33" s="50" t="s">
+      <c r="C33" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>99</v>
+      <c r="C34" s="65" t="s">
+        <v>89</v>
       </c>
       <c r="D34">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>100</v>
+        <v>72</v>
+      </c>
+      <c r="C35" s="65" t="s">
+        <v>88</v>
       </c>
       <c r="D35">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>101</v>
+        <v>72</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>90</v>
       </c>
       <c r="D36">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>102</v>
+        <v>73</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>91</v>
       </c>
       <c r="D37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="50" t="s">
-        <v>103</v>
+      <c r="C38" s="65" t="s">
+        <v>92</v>
       </c>
       <c r="D38">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="50" t="s">
-        <v>111</v>
+        <v>72</v>
+      </c>
+      <c r="C39" s="65" t="s">
+        <v>93</v>
       </c>
       <c r="D39">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>112</v>
+      <c r="C40" s="65" t="s">
+        <v>97</v>
       </c>
       <c r="D40">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="50" t="s">
-        <v>113</v>
+        <v>72</v>
+      </c>
+      <c r="C41" s="65" t="s">
+        <v>116</v>
       </c>
       <c r="D41">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="58" t="s">
-        <v>117</v>
+      <c r="C42" s="65" t="s">
+        <v>100</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B3:D42" xr:uid="{5BEA5D4C-24B3-4975-8002-BCF116DA8AE2}"/>
+  <autoFilter ref="B3:D42" xr:uid="{5BEA5D4C-24B3-4975-8002-BCF116DA8AE2}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D42">
+      <sortCondition sortBy="cellColor" ref="C3:C42" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/question/project.xlsx
+++ b/question/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-school\sudoku-console\question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C01590-8B22-46CA-ABF0-EE4B76D79E56}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07554D3-EE74-4BCD-8ED3-47E938696F3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
   </bookViews>
@@ -351,22 +351,6 @@
     <t>Source files should be commented at critical places and at function declarations</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">validate the whole last part of the PDF - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compilation</t>
-    </r>
-  </si>
-  <si>
     <t>test ideas</t>
   </si>
   <si>
@@ -407,6 +391,9 @@
   </si>
   <si>
     <t>check all mallocs were being freed is being freed (idea - pointers array)</t>
+  </si>
+  <si>
+    <t>validate the whole last part of the PDF - Compilation</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1028,47 @@
     <cellStyle name="טוב" xfId="2" builtinId="26"/>
     <cellStyle name="קלט" xfId="1" builtinId="20"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2065,7 +2092,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G2:G18">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2595,97 +2622,97 @@
   </sheetData>
   <autoFilter ref="A1:K18" xr:uid="{42595114-CB8B-4A18-BD37-7DAC7CAE0BB8}"/>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I17">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H8">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H4">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3190,7 +3217,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" s="79"/>
       <c r="C1" s="79"/>
@@ -3198,12 +3225,12 @@
       <c r="E1" s="79"/>
       <c r="F1" s="80"/>
       <c r="J1" s="62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="75" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
@@ -3216,7 +3243,7 @@
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" s="76"/>
       <c r="C3" s="76"/>
@@ -3229,7 +3256,7 @@
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
@@ -3242,7 +3269,7 @@
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="76"/>
       <c r="C5" s="76"/>
@@ -3255,7 +3282,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="75" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="76"/>
       <c r="C6" s="76"/>
@@ -3268,7 +3295,7 @@
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" s="76"/>
       <c r="C7" s="76"/>
@@ -3353,8 +3380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A333B1-1C34-4D67-950C-5A7C1762DE7C}">
   <dimension ref="B3:D42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3384,13 +3411,13 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
@@ -3398,61 +3425,61 @@
         <v>74</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>96</v>
+        <v>72</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>116</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>95</v>
+      <c r="C8" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>98</v>
+        <v>74</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>83</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>99</v>
+      <c r="C10" s="65" t="s">
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="65" t="s">
         <v>101</v>
       </c>
       <c r="D11">
@@ -3463,7 +3490,7 @@
       <c r="B12" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="65" t="s">
         <v>102</v>
       </c>
       <c r="D12">
@@ -3472,57 +3499,57 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="50" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>103</v>
+        <v>74</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>111</v>
+      <c r="C14" s="65" t="s">
+        <v>112</v>
       </c>
       <c r="D14">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>112</v>
+        <v>73</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>76</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>113</v>
+        <v>73</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>98</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" s="50" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="65" t="s">
         <v>117</v>
       </c>
       <c r="D17">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3574,7 +3601,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -3783,7 +3810,7 @@
         <v>72</v>
       </c>
       <c r="C41" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D41">
         <v>30</v>

--- a/question/project.xlsx
+++ b/question/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-school\sudoku-console\question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07554D3-EE74-4BCD-8ED3-47E938696F3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F7444-AF31-4589-8D59-B6F3484CC092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
   </bookViews>
@@ -834,7 +834,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -965,7 +965,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="1" applyBorder="1"/>
@@ -1028,39 +1027,7 @@
     <cellStyle name="טוב" xfId="2" builtinId="26"/>
     <cellStyle name="קלט" xfId="1" builtinId="20"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1664,7 +1631,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="58" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="3">
@@ -1694,7 +1661,7 @@
         <v>35</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="58" t="s">
         <v>1</v>
       </c>
       <c r="I3" s="3">
@@ -1746,7 +1713,7 @@
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="14"/>
-      <c r="H5" s="59" t="s">
+      <c r="H5" s="58" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="3">
@@ -1798,7 +1765,7 @@
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="59" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="3">
@@ -1824,7 +1791,7 @@
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="60" t="s">
+      <c r="H8" s="59" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="3">
@@ -1850,7 +1817,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
       <c r="G9" s="14"/>
-      <c r="H9" s="61" t="s">
+      <c r="H9" s="60" t="s">
         <v>7</v>
       </c>
       <c r="I9" s="3">
@@ -1922,7 +1889,7 @@
       </c>
       <c r="F12" s="28"/>
       <c r="G12" s="14"/>
-      <c r="H12" s="59" t="s">
+      <c r="H12" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I12" s="3">
@@ -1948,7 +1915,7 @@
       </c>
       <c r="F13" s="28"/>
       <c r="G13" s="14"/>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="59" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="3">
@@ -1974,7 +1941,7 @@
       </c>
       <c r="F14" s="28"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="60" t="s">
+      <c r="H14" s="59" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="3">
@@ -2092,7 +2059,7 @@
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G2:G18">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2622,97 +2589,97 @@
   </sheetData>
   <autoFilter ref="A1:K18" xr:uid="{42595114-CB8B-4A18-BD37-7DAC7CAE0BB8}"/>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I17">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H8">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H4">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2819,28 +2786,28 @@
       <c r="I8" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="68"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="67"/>
       <c r="P8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="L9" s="69"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="71"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
       <c r="P9" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L10" s="72"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="74"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="73"/>
       <c r="P10" t="s">
         <v>33</v>
       </c>
@@ -2942,18 +2909,18 @@
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="68"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="66"/>
+      <c r="V14" s="66"/>
+      <c r="W14" s="67"/>
       <c r="X14">
         <v>1</v>
       </c>
@@ -2968,18 +2935,18 @@
       <c r="G15" s="34"/>
       <c r="H15" s="30"/>
       <c r="I15" s="35"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="71"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="69"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="69"/>
+      <c r="V15" s="69"/>
+      <c r="W15" s="70"/>
       <c r="X15">
         <v>2</v>
       </c>
@@ -2994,18 +2961,18 @@
       <c r="G16" s="36"/>
       <c r="H16" s="37"/>
       <c r="I16" s="38"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="74"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="73"/>
       <c r="X16">
         <v>3</v>
       </c>
@@ -3216,92 +3183,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
-      <c r="J1" s="62" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="J1" s="61" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="74" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="77"/>
-      <c r="J2" s="63" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="J2" s="62" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
       <c r="J3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="77"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76"/>
       <c r="J4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="76"/>
       <c r="J5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
       <c r="J6" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="74" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="77"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="75"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="76"/>
       <c r="J7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3380,8 +3347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A333B1-1C34-4D67-950C-5A7C1762DE7C}">
   <dimension ref="B3:D42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3403,39 +3370,39 @@
         <v>74</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>110</v>
+      <c r="C6" s="64" t="s">
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="64" t="s">
         <v>116</v>
       </c>
       <c r="D7">
@@ -3446,7 +3413,7 @@
       <c r="B8" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="64" t="s">
         <v>96</v>
       </c>
       <c r="D8">
@@ -3457,7 +3424,7 @@
       <c r="B9" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="64" t="s">
         <v>83</v>
       </c>
       <c r="D9">
@@ -3468,7 +3435,7 @@
       <c r="B10" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="64" t="s">
         <v>95</v>
       </c>
       <c r="D10">
@@ -3479,7 +3446,7 @@
       <c r="B11" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="64" t="s">
         <v>101</v>
       </c>
       <c r="D11">
@@ -3490,7 +3457,7 @@
       <c r="B12" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="64" t="s">
         <v>102</v>
       </c>
       <c r="D12">
@@ -3501,7 +3468,7 @@
       <c r="B13" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>111</v>
       </c>
       <c r="D13">
@@ -3512,7 +3479,7 @@
       <c r="B14" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>112</v>
       </c>
       <c r="D14">
@@ -3523,7 +3490,7 @@
       <c r="B15" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="64" t="s">
         <v>76</v>
       </c>
       <c r="D15">
@@ -3534,7 +3501,7 @@
       <c r="B16" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="65" t="s">
+      <c r="C16" s="64" t="s">
         <v>98</v>
       </c>
       <c r="D16">
@@ -3545,7 +3512,7 @@
       <c r="B17" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="65" t="s">
+      <c r="C17" s="64" t="s">
         <v>117</v>
       </c>
       <c r="D17">
@@ -3556,7 +3523,7 @@
       <c r="B18" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C18" s="64" t="s">
+      <c r="C18" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D18">
@@ -3567,7 +3534,7 @@
       <c r="B19" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="65" t="s">
+      <c r="C19" s="64" t="s">
         <v>68</v>
       </c>
       <c r="D19">
@@ -3578,7 +3545,7 @@
       <c r="B20" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="65" t="s">
+      <c r="C20" s="64" t="s">
         <v>69</v>
       </c>
       <c r="D20">
@@ -3589,7 +3556,7 @@
       <c r="B21" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="65" t="s">
+      <c r="C21" s="64" t="s">
         <v>70</v>
       </c>
       <c r="D21">
@@ -3600,7 +3567,7 @@
       <c r="B22" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="64" t="s">
         <v>114</v>
       </c>
       <c r="D22">
@@ -3611,7 +3578,7 @@
       <c r="B23" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="64" t="s">
         <v>77</v>
       </c>
       <c r="D23">
@@ -3622,7 +3589,7 @@
       <c r="B24" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="65" t="s">
+      <c r="C24" s="64" t="s">
         <v>78</v>
       </c>
       <c r="D24">
@@ -3633,7 +3600,7 @@
       <c r="B25" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="64" t="s">
         <v>79</v>
       </c>
       <c r="D25">
@@ -3644,7 +3611,7 @@
       <c r="B26" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="65" t="s">
+      <c r="C26" s="64" t="s">
         <v>80</v>
       </c>
       <c r="D26">
@@ -3655,7 +3622,7 @@
       <c r="B27" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="65" t="s">
+      <c r="C27" s="64" t="s">
         <v>80</v>
       </c>
       <c r="D27">
@@ -3666,7 +3633,7 @@
       <c r="B28" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="64" t="s">
         <v>81</v>
       </c>
       <c r="D28">
@@ -3677,7 +3644,7 @@
       <c r="B29" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="64" t="s">
         <v>82</v>
       </c>
       <c r="D29">
@@ -3688,7 +3655,7 @@
       <c r="B30" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="64" t="s">
         <v>84</v>
       </c>
       <c r="D30">
@@ -3699,7 +3666,7 @@
       <c r="B31" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="64" t="s">
         <v>85</v>
       </c>
       <c r="D31">
@@ -3710,7 +3677,7 @@
       <c r="B32" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="65" t="s">
+      <c r="C32" s="64" t="s">
         <v>86</v>
       </c>
       <c r="D32">
@@ -3721,7 +3688,7 @@
       <c r="B33" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="64" t="s">
         <v>87</v>
       </c>
       <c r="D33">
@@ -3732,7 +3699,7 @@
       <c r="B34" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C34" s="65" t="s">
+      <c r="C34" s="64" t="s">
         <v>89</v>
       </c>
       <c r="D34">
@@ -3743,7 +3710,7 @@
       <c r="B35" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="65" t="s">
+      <c r="C35" s="64" t="s">
         <v>88</v>
       </c>
       <c r="D35">
@@ -3754,7 +3721,7 @@
       <c r="B36" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="65" t="s">
+      <c r="C36" s="64" t="s">
         <v>90</v>
       </c>
       <c r="D36">
@@ -3765,7 +3732,7 @@
       <c r="B37" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="64" t="s">
         <v>91</v>
       </c>
       <c r="D37">
@@ -3776,7 +3743,7 @@
       <c r="B38" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="65" t="s">
+      <c r="C38" s="64" t="s">
         <v>92</v>
       </c>
       <c r="D38">
@@ -3787,7 +3754,7 @@
       <c r="B39" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="64" t="s">
         <v>93</v>
       </c>
       <c r="D39">
@@ -3798,7 +3765,7 @@
       <c r="B40" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="65" t="s">
+      <c r="C40" s="64" t="s">
         <v>97</v>
       </c>
       <c r="D40">
@@ -3809,7 +3776,7 @@
       <c r="B41" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="64" t="s">
         <v>115</v>
       </c>
       <c r="D41">
@@ -3820,7 +3787,7 @@
       <c r="B42" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="64" t="s">
         <v>100</v>
       </c>
       <c r="D42">

--- a/question/project.xlsx
+++ b/question/project.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-school\sudoku-console\question\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Allen\C-eclipse-workspace\sudoku2\question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4F7444-AF31-4589-8D59-B6F3484CC092}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D514E7-AF19-44D2-9878-AE13D9A5D64B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{04C15DC7-2B2E-4C51-8DF8-2F6BCEC7DC7A}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -413,14 +413,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -428,7 +428,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF222222"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -437,14 +437,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -1027,23 +1027,7 @@
     <cellStyle name="טוב" xfId="2" builtinId="26"/>
     <cellStyle name="קלט" xfId="1" builtinId="20"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1564,22 +1548,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB7CDDFC-E759-47AE-8010-F304FE241A39}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="J17" sqref="J9:J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.875" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -1611,7 +1595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>48</v>
       </c>
@@ -1641,7 +1625,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>48</v>
       </c>
@@ -1671,7 +1655,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>46</v>
       </c>
@@ -1699,7 +1683,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9">
@@ -1723,7 +1707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
@@ -1751,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9">
@@ -1775,7 +1759,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>50</v>
       </c>
@@ -1801,7 +1785,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>52</v>
       </c>
@@ -1827,7 +1811,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9">
@@ -1849,7 +1833,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9">
@@ -1871,7 +1855,7 @@
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>48</v>
       </c>
@@ -1899,7 +1883,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>51</v>
       </c>
@@ -1925,7 +1909,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>51</v>
       </c>
@@ -1951,7 +1935,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9">
@@ -1975,7 +1959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9">
@@ -1997,7 +1981,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
@@ -2021,7 +2005,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10">
@@ -2049,17 +2033,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G20" s="45"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J18" xr:uid="{4B6FF6AF-75C2-4CC6-AB7E-A1797968E4C8}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J18">
+    <sortState ref="A2:J18">
       <sortCondition ref="I1:I18"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="G2:G18">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2076,21 +2060,21 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -2125,7 +2109,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -2152,7 +2136,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -2179,7 +2163,7 @@
       <c r="J3" s="13"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
@@ -2208,7 +2192,7 @@
       <c r="J4" s="13"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>52</v>
       </c>
@@ -2235,7 +2219,7 @@
       <c r="J5" s="13"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>48</v>
       </c>
@@ -2266,7 +2250,7 @@
       <c r="J6" s="13"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>48</v>
       </c>
@@ -2297,7 +2281,7 @@
       <c r="J7" s="13"/>
       <c r="K7" s="55"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
@@ -2326,7 +2310,7 @@
       <c r="J8" s="13"/>
       <c r="K8" s="55"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>50</v>
       </c>
@@ -2353,7 +2337,7 @@
       <c r="J9" s="13"/>
       <c r="K9" s="55"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>46</v>
       </c>
@@ -2380,7 +2364,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="55"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9">
@@ -2405,7 +2389,7 @@
       <c r="J11" s="13"/>
       <c r="K11" s="55"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9">
@@ -2430,7 +2414,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="55"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9">
@@ -2457,7 +2441,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9">
@@ -2484,7 +2468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9">
@@ -2509,7 +2493,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="55"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9">
@@ -2534,7 +2518,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
@@ -2559,7 +2543,7 @@
       <c r="J17" s="13"/>
       <c r="K17" s="55"/>
     </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10">
@@ -2589,97 +2573,97 @@
   </sheetData>
   <autoFilter ref="A1:K18" xr:uid="{42595114-CB8B-4A18-BD37-7DAC7CAE0BB8}"/>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I15:I17">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H14">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13:I14">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11:I17">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:H8">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H4">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I4">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:I10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2696,10 +2680,10 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E2">
         <f>38</f>
         <v>38</v>
@@ -2715,7 +2699,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="I3" s="13">
         <f>4*M3+M5+1</f>
         <v>52</v>
@@ -2734,7 +2718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="M4" s="13">
         <v>4</v>
       </c>
@@ -2742,7 +2726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M5" s="15">
         <v>3</v>
       </c>
@@ -2750,7 +2734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="H6" s="39">
         <v>0</v>
       </c>
@@ -2759,7 +2743,7 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H7" s="40">
         <v>0</v>
       </c>
@@ -2779,7 +2763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H8" s="41">
         <v>0</v>
       </c>
@@ -2794,7 +2778,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L9" s="68"/>
       <c r="M9" s="69"/>
       <c r="N9" s="69"/>
@@ -2803,7 +2787,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L10" s="71"/>
       <c r="M10" s="72"/>
       <c r="N10" s="72"/>
@@ -2812,7 +2796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="31">
         <v>8</v>
       </c>
@@ -2841,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="34"/>
       <c r="B12" s="30"/>
       <c r="C12" s="35"/>
@@ -2852,7 +2836,7 @@
       <c r="H12" s="30"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="37"/>
       <c r="C13" s="38"/>
@@ -2899,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="33"/>
@@ -2925,7 +2909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="34"/>
       <c r="B15" s="30"/>
       <c r="C15" s="35"/>
@@ -2951,7 +2935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
@@ -2977,7 +2961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="33"/>
@@ -3003,7 +2987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="30"/>
       <c r="C18" s="35"/>
@@ -3029,7 +3013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="37"/>
       <c r="C19" s="38"/>
@@ -3055,7 +3039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L20" s="18"/>
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
@@ -3072,7 +3056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L21" s="21"/>
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
@@ -3089,7 +3073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L22" s="24"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
@@ -3106,7 +3090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L23" s="18"/>
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
@@ -3123,7 +3107,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="L24" s="21"/>
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
@@ -3140,7 +3124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L25" s="24"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
@@ -3177,12 +3161,12 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>103</v>
       </c>
@@ -3195,7 +3179,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="74" t="s">
         <v>104</v>
       </c>
@@ -3208,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>105</v>
       </c>
@@ -3221,7 +3205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>106</v>
       </c>
@@ -3234,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>107</v>
       </c>
@@ -3247,7 +3231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>108</v>
       </c>
@@ -3260,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>109</v>
       </c>
@@ -3273,57 +3257,57 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J8" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J10" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J11" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J12" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J16" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="10:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="10:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J18" s="5" t="s">
         <v>16</v>
       </c>
@@ -3347,17 +3331,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26A333B1-1C34-4D67-950C-5A7C1762DE7C}">
   <dimension ref="B3:D42"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="111.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="111.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="57" t="s">
         <v>71</v>
       </c>
@@ -3365,7 +3349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="50" t="s">
         <v>74</v>
       </c>
@@ -3376,7 +3360,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="50" t="s">
         <v>73</v>
       </c>
@@ -3387,7 +3371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" s="50" t="s">
         <v>74</v>
       </c>
@@ -3398,7 +3382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="50" t="s">
         <v>72</v>
       </c>
@@ -3409,7 +3393,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="50" t="s">
         <v>74</v>
       </c>
@@ -3420,7 +3404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" s="50" t="s">
         <v>74</v>
       </c>
@@ -3431,7 +3415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="50" t="s">
         <v>74</v>
       </c>
@@ -3442,7 +3426,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="50" t="s">
         <v>74</v>
       </c>
@@ -3453,7 +3437,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="50" t="s">
         <v>74</v>
       </c>
@@ -3464,7 +3448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="50" t="s">
         <v>74</v>
       </c>
@@ -3475,7 +3459,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="50" t="s">
         <v>74</v>
       </c>
@@ -3486,7 +3470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="50" t="s">
         <v>73</v>
       </c>
@@ -3497,7 +3481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" s="50" t="s">
         <v>73</v>
       </c>
@@ -3508,7 +3492,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="50" t="s">
         <v>73</v>
       </c>
@@ -3519,7 +3503,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B18" s="50" t="s">
         <v>72</v>
       </c>
@@ -3530,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="50" t="s">
         <v>73</v>
       </c>
@@ -3541,7 +3525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="50" t="s">
         <v>74</v>
       </c>
@@ -3552,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="50" t="s">
         <v>74</v>
       </c>
@@ -3563,7 +3547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="50" t="s">
         <v>72</v>
       </c>
@@ -3574,7 +3558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="50" t="s">
         <v>72</v>
       </c>
@@ -3585,7 +3569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="50" t="s">
         <v>72</v>
       </c>
@@ -3596,7 +3580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="50" t="s">
         <v>72</v>
       </c>
@@ -3607,7 +3591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="50" t="s">
         <v>72</v>
       </c>
@@ -3618,7 +3602,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="50" t="s">
         <v>73</v>
       </c>
@@ -3629,7 +3613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="50" t="s">
         <v>72</v>
       </c>
@@ -3640,7 +3624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B29" s="50" t="s">
         <v>72</v>
       </c>
@@ -3651,7 +3635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="50" t="s">
         <v>72</v>
       </c>
@@ -3662,7 +3646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="50" t="s">
         <v>74</v>
       </c>
@@ -3673,7 +3657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="50" t="s">
         <v>72</v>
       </c>
@@ -3684,7 +3668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="50" t="s">
         <v>73</v>
       </c>
@@ -3695,7 +3679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="50" t="s">
         <v>72</v>
       </c>
@@ -3706,7 +3690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="50" t="s">
         <v>72</v>
       </c>
@@ -3717,7 +3701,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="50" t="s">
         <v>72</v>
       </c>
@@ -3728,7 +3712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="50" t="s">
         <v>73</v>
       </c>
@@ -3739,7 +3723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="50" t="s">
         <v>73</v>
       </c>
@@ -3750,7 +3734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="50" t="s">
         <v>72</v>
       </c>
@@ -3761,7 +3745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="50" t="s">
         <v>74</v>
       </c>
@@ -3772,7 +3756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="50" t="s">
         <v>72</v>
       </c>
@@ -3783,7 +3767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="50" t="s">
         <v>74</v>
       </c>
@@ -3796,8 +3780,8 @@
     </row>
   </sheetData>
   <autoFilter ref="B3:D42" xr:uid="{5BEA5D4C-24B3-4975-8002-BCF116DA8AE2}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D42">
-      <sortCondition sortBy="cellColor" ref="C3:C42" dxfId="1"/>
+    <sortState ref="B4:D42">
+      <sortCondition sortBy="cellColor" ref="C3:C42" dxfId="0"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
